--- a/src/test/resources/SAFE.xlsx
+++ b/src/test/resources/SAFE.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
   <si>
     <t>S.NO.</t>
   </si>
@@ -37,7 +37,7 @@
     <t>Sanity</t>
   </si>
   <si>
-    <t>N</t>
+    <t>Y</t>
   </si>
   <si>
     <t>positiveLoginWithEmail</t>
@@ -68,9 +68,6 @@
   </si>
   <si>
     <t>Verify user can import a test result with the list of physician of a particular state.</t>
-  </si>
-  <si>
-    <t>Y</t>
   </si>
 </sst>
 </file>
@@ -270,7 +267,7 @@
         <v>7</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">

--- a/src/test/resources/SAFE.xlsx
+++ b/src/test/resources/SAFE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C321122B-8A13-AC4F-8284-C48CFC4F61EA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB41502-CE0D-DF46-B74F-6966BC5761B4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
   <si>
     <t>S.NO.</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>Verify user can import a test result with the list of physician of a particular state.</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -614,7 +617,7 @@
   <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E7"/>
+      <selection activeCell="E3" sqref="E3:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -672,7 +675,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -689,7 +692,7 @@
         <v>7</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -706,7 +709,7 @@
         <v>7</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -723,7 +726,7 @@
         <v>7</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -740,7 +743,7 @@
         <v>7</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">

--- a/src/test/resources/SAFE.xlsx
+++ b/src/test/resources/SAFE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB41502-CE0D-DF46-B74F-6966BC5761B4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF843638-A900-2045-A18A-C775FC935A3B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
   <si>
     <t>S.NO.</t>
   </si>
@@ -44,9 +44,6 @@
   </si>
   <si>
     <t>Sanity</t>
-  </si>
-  <si>
-    <t>Y</t>
   </si>
   <si>
     <t>positiveLoginWithEmail</t>
@@ -617,7 +614,7 @@
   <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -658,7 +655,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -666,16 +663,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -683,16 +680,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -700,16 +697,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -717,16 +714,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -734,16 +731,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">

--- a/src/test/resources/SAFE.xlsx
+++ b/src/test/resources/SAFE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF843638-A900-2045-A18A-C775FC935A3B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E30CF7-E256-2B48-8E5B-07949E76081F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
   <si>
     <t>S.NO.</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>Sanity</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
   <si>
     <t>positiveLoginWithEmail</t>
@@ -614,7 +617,7 @@
   <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E3" sqref="A1:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -655,7 +658,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -663,16 +666,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -680,16 +683,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -697,16 +700,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -714,16 +717,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -731,16 +734,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">

--- a/src/test/resources/SAFE.xlsx
+++ b/src/test/resources/SAFE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E30CF7-E256-2B48-8E5B-07949E76081F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E4AEB6C-7C0A-874C-A5FA-057D78EFD316}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -617,7 +617,7 @@
   <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="A1:E7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -658,7 +658,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">

--- a/src/test/resources/SAFE.xlsx
+++ b/src/test/resources/SAFE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E4AEB6C-7C0A-874C-A5FA-057D78EFD316}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAEE057C-DBBB-4C4D-AF26-2D8B484CF51D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
   <si>
     <t>S.NO.</t>
   </si>
@@ -77,9 +77,6 @@
   </si>
   <si>
     <t>Verify user can import a test result with the list of physician of a particular state.</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
 </sst>
 </file>
@@ -617,7 +614,7 @@
   <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E3" sqref="E3:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -692,7 +689,7 @@
         <v>7</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -709,7 +706,7 @@
         <v>7</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -726,7 +723,7 @@
         <v>7</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -743,7 +740,7 @@
         <v>7</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">

--- a/src/test/resources/SAFE.xlsx
+++ b/src/test/resources/SAFE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAEE057C-DBBB-4C4D-AF26-2D8B484CF51D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA6C58C-B957-A449-9E28-166D6317B829}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
   <si>
     <t>S.NO.</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>Verify user can import a test result with the list of physician of a particular state.</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -672,7 +675,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -689,7 +692,7 @@
         <v>7</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -706,7 +709,7 @@
         <v>7</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -723,7 +726,7 @@
         <v>7</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -740,7 +743,7 @@
         <v>7</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">

--- a/src/test/resources/SAFE.xlsx
+++ b/src/test/resources/SAFE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA6C58C-B957-A449-9E28-166D6317B829}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53469BFD-4BA6-D640-973C-E02BA867827C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
   <si>
     <t>S.NO.</t>
   </si>
@@ -77,9 +77,6 @@
   </si>
   <si>
     <t>Verify user can import a test result with the list of physician of a particular state.</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
 </sst>
 </file>
@@ -617,7 +614,7 @@
   <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -675,7 +672,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -692,7 +689,7 @@
         <v>7</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -709,7 +706,7 @@
         <v>7</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -726,7 +723,7 @@
         <v>7</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -743,7 +740,7 @@
         <v>7</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">

--- a/src/test/resources/SAFE.xlsx
+++ b/src/test/resources/SAFE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53469BFD-4BA6-D640-973C-E02BA867827C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCC0E857-ACC0-8340-BCB9-418704FA4D75}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
   <si>
     <t>S.NO.</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>Verify user can import a test result with the list of physician of a particular state.</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -614,7 +617,7 @@
   <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -655,7 +658,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -672,7 +675,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -689,7 +692,7 @@
         <v>7</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -706,7 +709,7 @@
         <v>7</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -740,7 +743,7 @@
         <v>7</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">

--- a/src/test/resources/SAFE.xlsx
+++ b/src/test/resources/SAFE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCC0E857-ACC0-8340-BCB9-418704FA4D75}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68FDB2E9-FDE9-454F-809F-70EFD89E7C07}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -617,7 +617,7 @@
   <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -658,7 +658,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">

--- a/src/test/resources/SAFE.xlsx
+++ b/src/test/resources/SAFE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68FDB2E9-FDE9-454F-809F-70EFD89E7C07}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5767169-E62C-604C-817B-E48055683EF9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
   <si>
     <t>S.NO.</t>
   </si>
@@ -77,9 +77,6 @@
   </si>
   <si>
     <t>Verify user can import a test result with the list of physician of a particular state.</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
 </sst>
 </file>
@@ -617,7 +614,7 @@
   <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E2" sqref="E2:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -675,7 +672,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -692,7 +689,7 @@
         <v>7</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -709,7 +706,7 @@
         <v>7</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -743,7 +740,7 @@
         <v>7</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">

--- a/src/test/resources/SAFE.xlsx
+++ b/src/test/resources/SAFE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5767169-E62C-604C-817B-E48055683EF9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2C31B7F-0075-A245-AFDF-DA519C2E66FD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
   <si>
     <t>S.NO.</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>Verify user can import a test result with the list of physician of a particular state.</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -614,7 +617,7 @@
   <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -655,7 +658,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -672,7 +675,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -689,7 +692,7 @@
         <v>7</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -706,7 +709,7 @@
         <v>7</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -740,7 +743,7 @@
         <v>7</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">

--- a/src/test/resources/SAFE.xlsx
+++ b/src/test/resources/SAFE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2C31B7F-0075-A245-AFDF-DA519C2E66FD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41AD50C5-10BA-264B-966D-094635895B30}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
   <si>
     <t>S.NO.</t>
   </si>
@@ -77,9 +77,6 @@
   </si>
   <si>
     <t>Verify user can import a test result with the list of physician of a particular state.</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
 </sst>
 </file>
@@ -617,7 +614,7 @@
   <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E2" sqref="E2:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -658,7 +655,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -675,7 +672,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -692,7 +689,7 @@
         <v>7</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -709,7 +706,7 @@
         <v>7</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -743,7 +740,7 @@
         <v>7</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
